--- a/A004/tableo2h2o.xlsx
+++ b/A004/tableo2h2o.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andri\Desktop\Universitaet\Fortgeschrittenes_Praktikum_I\Versuch_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\Lukas_Prader\uibk\Physik_Unterlagen\6.Semester\Fortgeschrittenenpraktikum_1\advanced_labcourse\A004\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B296E7AD-94A1-4C16-B62F-D2FBF2276D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B1FD11-B058-4966-AFF2-E4ABB98491C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5910" yWindow="4020" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="8">
-  <si>
-    <t>zenit</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="14">
   <si>
     <t>element</t>
   </si>
@@ -49,6 +46,27 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>iteration</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>datayear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e </t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -366,530 +384,1875 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2">
+        <v>2024</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2">
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3">
+        <v>2024</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3">
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
       <c r="D4">
+        <v>2024</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
       <c r="D5">
+        <v>2024</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5">
         <v>0.36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
       <c r="D6">
+        <v>2024</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6">
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
       <c r="D7">
+        <v>2024</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
         <v>0.1938</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
       <c r="D8">
+        <v>2024</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
       <c r="D9">
+        <v>2024</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9">
         <v>0.35780000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
       <c r="D10">
+        <v>2024</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10">
         <v>0.107</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
       <c r="D11">
+        <v>2024</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11">
         <v>0.188</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
       <c r="D12">
+        <v>2024</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12">
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
       <c r="D13">
+        <v>2024</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13">
         <v>0.37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
         <v>55</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
       <c r="D14">
+        <v>2024</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14">
         <v>9.4799999999999995E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
       <c r="D15">
+        <v>2024</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15">
         <v>0.26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
         <v>55</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
       <c r="D16">
+        <v>2024</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16">
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
         <v>55</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
       <c r="D17">
+        <v>2024</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17">
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
       <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18">
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
         <v>60</v>
       </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
       <c r="D19">
+        <v>2024</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19">
         <v>0.218</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
         <v>60</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
       <c r="D20">
+        <v>2024</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20">
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
       <c r="D21">
+        <v>2024</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21">
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
         <v>65</v>
       </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
       <c r="D22">
+        <v>2024</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
         <v>65</v>
       </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
       <c r="D23">
+        <v>2024</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23">
         <v>0.222</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
         <v>65</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
       <c r="D24">
+        <v>2024</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
         <v>65</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
       <c r="D25">
+        <v>2024</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25">
         <v>0.32</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
         <v>70</v>
       </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
       <c r="D26">
+        <v>2024</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26">
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
         <v>70</v>
       </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
       <c r="D27">
+        <v>2024</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27">
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
         <v>70</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
       <c r="D28">
+        <v>2024</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
         <v>70</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
       <c r="D29">
+        <v>2024</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29">
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
         <v>75</v>
       </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
       <c r="D30">
+        <v>2024</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30">
         <v>0.105</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
         <v>75</v>
       </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
       <c r="D31">
+        <v>2024</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31">
         <v>0.222</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
         <v>75</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
       <c r="D32">
+        <v>2024</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32">
         <v>0.106</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
         <v>75</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
       <c r="D33">
+        <v>2024</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33">
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
         <v>80</v>
       </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
       <c r="D34">
+        <v>2024</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34">
         <v>0.105</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
         <v>80</v>
       </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
       <c r="D35">
+        <v>2024</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35">
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
         <v>80</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
       <c r="D36">
+        <v>2024</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36">
         <v>0.104</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
         <v>80</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
       <c r="D37">
+        <v>2024</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37">
         <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>2022</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>0.200539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>2022</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>4.71344E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>2022</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>0.213755</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>2022</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>3.59154E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>2022</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <v>0.17933399999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>2022</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>1.62554E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>2022</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44">
+        <v>0.18618000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>2022</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>4.01375E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>2022</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46">
+        <v>0.20452699999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>2022</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>9.9857000000000001E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>2022</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <v>0.189776</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>2022</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>4.1565999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>30</v>
+      </c>
+      <c r="D50">
+        <v>2022</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50">
+        <v>0.15225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <v>30</v>
+      </c>
+      <c r="D51">
+        <v>2022</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>1.36195E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>30</v>
+      </c>
+      <c r="D52">
+        <v>2022</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52">
+        <v>0.206599</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>30</v>
+      </c>
+      <c r="D53">
+        <v>2022</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>4.3095000000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>40</v>
+      </c>
+      <c r="D54">
+        <v>2022</v>
+      </c>
+      <c r="E54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54">
+        <v>0.1729</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>40</v>
+      </c>
+      <c r="D55">
+        <v>2022</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>1.2260999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56">
+        <v>40</v>
+      </c>
+      <c r="D56">
+        <v>2022</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>0.19069</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57">
+        <v>40</v>
+      </c>
+      <c r="D57">
+        <v>2022</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>3.9661799999999997E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58">
+        <v>50</v>
+      </c>
+      <c r="D58">
+        <v>2022</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58">
+        <v>0.183647</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <v>50</v>
+      </c>
+      <c r="D59">
+        <v>2022</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>1.8044000000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>50</v>
+      </c>
+      <c r="D60">
+        <v>2022</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60">
+        <v>0.20220299999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <v>50</v>
+      </c>
+      <c r="D61">
+        <v>2022</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <v>4.3961699999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62">
+        <v>60</v>
+      </c>
+      <c r="D62">
+        <v>2022</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>0.197549</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>60</v>
+      </c>
+      <c r="D63">
+        <v>2022</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>1.1095900000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>60</v>
+      </c>
+      <c r="D64">
+        <v>2022</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64">
+        <v>0.21654399999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65">
+        <v>60</v>
+      </c>
+      <c r="D65">
+        <v>2022</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>4.4526000000000003E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66">
+        <v>65</v>
+      </c>
+      <c r="D66">
+        <v>2022</v>
+      </c>
+      <c r="E66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66">
+        <v>0.21467</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67">
+        <v>65</v>
+      </c>
+      <c r="D67">
+        <v>2022</v>
+      </c>
+      <c r="E67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>1.38478E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>65</v>
+      </c>
+      <c r="D68">
+        <v>2022</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68">
+        <v>0.21948000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <v>65</v>
+      </c>
+      <c r="D69">
+        <v>2022</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69">
+        <v>4.4373700000000002E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70">
+        <v>70</v>
+      </c>
+      <c r="D70">
+        <v>2022</v>
+      </c>
+      <c r="E70" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70">
+        <v>0.21787200000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71">
+        <v>70</v>
+      </c>
+      <c r="D71">
+        <v>2022</v>
+      </c>
+      <c r="E71" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71">
+        <v>1.93335E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>70</v>
+      </c>
+      <c r="D72">
+        <v>2022</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72">
+        <v>0.22101199999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73">
+        <v>70</v>
+      </c>
+      <c r="D73">
+        <v>2022</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73">
+        <v>5.7109E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>75</v>
+      </c>
+      <c r="D74">
+        <v>2022</v>
+      </c>
+      <c r="E74" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74">
+        <v>0.195719</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75">
+        <v>75</v>
+      </c>
+      <c r="D75">
+        <v>2022</v>
+      </c>
+      <c r="E75" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75">
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76">
+        <v>75</v>
+      </c>
+      <c r="D76">
+        <v>2022</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76">
+        <v>0.20580100000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77">
+        <v>75</v>
+      </c>
+      <c r="D77">
+        <v>2022</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <v>5.4912999999999997E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78">
+        <v>80</v>
+      </c>
+      <c r="D78">
+        <v>2022</v>
+      </c>
+      <c r="E78" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78">
+        <v>0.217502</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79">
+        <v>80</v>
+      </c>
+      <c r="D79">
+        <v>2022</v>
+      </c>
+      <c r="E79" t="s">
+        <v>3</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79">
+        <v>1.469E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80">
+        <v>80</v>
+      </c>
+      <c r="D80">
+        <v>2022</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80">
+        <v>0.24562200000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81">
+        <v>2022</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81">
+        <v>6.6589999999999996E-2</v>
       </c>
     </row>
   </sheetData>
